--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P20_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P20_trail7 Features.xlsx
@@ -6342,7 +6342,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6353,29 +6353,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="18" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6396,115 +6394,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6521,72 +6509,66 @@
         <v>1.241467579147979e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.60516107969757</v>
+        <v>5.769715979632901e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.042945452226793</v>
+        <v>1.840978924626204e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.769715979632901e-07</v>
+        <v>0.07429489951669019</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.840978924626204e-06</v>
+        <v>0.1285943199023344</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.07429489951669019</v>
+        <v>0.0220196683149138</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1285943199023344</v>
+        <v>1.904886439928253</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.0220196683149138</v>
+        <v>2.249729735384436</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.91485103705886</v>
+        <v>4.910888340649514</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.249729735384436</v>
+        <v>1.094166597096842e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.910888340649514</v>
+        <v>1397129499.146783</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.094166597096842e-16</v>
+        <v>8.579132081850366e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1397129499.146783</v>
+        <v>213.5781288775067</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8.579132081850366e-08</v>
+        <v>0.0001453995956600828</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>213.5781288775067</v>
+        <v>8.648129077836995</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001453995956600828</v>
+        <v>1.34281627449901</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.648129077836995</v>
+        <v>0.01087445561328597</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.34281627449901</v>
+        <v>2.900768763999837</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01087445561328597</v>
+        <v>0.9595191162469928</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.900768763999837</v>
+        <v>1.329948219542911</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9595191162469928</v>
+        <v>97</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.329948219542911</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>97</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.5445350866500729</v>
       </c>
     </row>
@@ -6601,72 +6583,66 @@
         <v>1.110953008996372e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.483642855814488</v>
+        <v>4.932308230960337e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.450779138191056</v>
+        <v>1.84945181030901e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.932308230960337e-07</v>
+        <v>0.0701227910176194</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.84945181030901e-06</v>
+        <v>0.1144316582147457</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.0701227910176194</v>
+        <v>0.01798389022064506</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1144316582147457</v>
+        <v>1.900907224350394</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01798389022064506</v>
+        <v>2.121665548557233</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.910151021715693</v>
+        <v>4.83146440116582</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.121665548557233</v>
+        <v>1.130436062903846e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.83146440116582</v>
+        <v>1357664688.946123</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.130436062903846e-16</v>
+        <v>8.828888998306637e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1357664688.946123</v>
+        <v>208.3680125034073</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>8.828888998306637e-08</v>
+        <v>0.0001497674672961879</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>208.3680125034073</v>
+        <v>9.231550519116929</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001497674672961879</v>
+        <v>1.267764615750238</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.231550519116929</v>
+        <v>0.01276341195642299</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.267764615750238</v>
+        <v>2.847993843984426</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01276341195642299</v>
+        <v>0.9603948570004702</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.847993843984426</v>
+        <v>1.331740732419685</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9603948570004702</v>
+        <v>92</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.331740732419685</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.6074819377695395</v>
       </c>
     </row>
@@ -6681,72 +6657,66 @@
         <v>1.007001441869474e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.402380190031859</v>
+        <v>4.28000659369269e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.044529788169314</v>
+        <v>1.856655744967369e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.28000659369269e-07</v>
+        <v>0.06622067257154964</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.856655744967369e-06</v>
+        <v>0.1024817328036234</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.06622067257154964</v>
+        <v>0.01486690643905772</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1024817328036234</v>
+        <v>1.904483892711212</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01486690643905772</v>
+        <v>2.141023563987058</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.915016477449793</v>
+        <v>4.893671094982918</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.141023563987058</v>
+        <v>1.101879283234623e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.893671094982918</v>
+        <v>1366369013.463526</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.101879283234623e-16</v>
+        <v>8.780970708169024e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>1366369013.463526</v>
+        <v>205.7169263721453</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>8.780970708169024e-08</v>
+        <v>0.0001495375276752303</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>205.7169263721453</v>
+        <v>9.465883469680511</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001495375276752303</v>
+        <v>1.200697432199236</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.465883469680511</v>
+        <v>0.01339900359470691</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.200697432199236</v>
+        <v>2.991444699025352</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01339900359470691</v>
+        <v>0.9605471663639077</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.991444699025352</v>
+        <v>1.323349237069244</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9605471663639077</v>
+        <v>136</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.323349237069244</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>136</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.7693023175294534</v>
       </c>
     </row>
@@ -6761,72 +6731,66 @@
         <v>9.225539334546225e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-1.35958094505842</v>
+        <v>3.765156965543489e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.8128060732153988</v>
+        <v>1.862859370935689e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.765156965543489e-07</v>
+        <v>0.06262922761874191</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.862859370935689e-06</v>
+        <v>0.09272914035034049</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.06262922761874191</v>
+        <v>0.01250582539949044</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.09272914035034049</v>
+        <v>1.915281763238952</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01250582539949044</v>
+        <v>2.412759963184082</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.928473776702522</v>
+        <v>4.874529905948095</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.412759963184082</v>
+        <v>1.110549940890386e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.874529905948095</v>
+        <v>1363661523.273911</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.110549940890386e-16</v>
+        <v>8.821825198894314e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>1363661523.273911</v>
+        <v>206.514840765798</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>8.821825198894314e-08</v>
+        <v>0.0001432815847676929</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>206.514840765798</v>
+        <v>8.569020724530231</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001432815847676929</v>
+        <v>1.341671347811992</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.569020724530231</v>
+        <v>0.01052089685240824</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.341671347811992</v>
+        <v>3.427128795606814</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01052089685240824</v>
+        <v>0.9613628867009802</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.427128795606814</v>
+        <v>1.26892852671415</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9613628867009802</v>
+        <v>131</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.26892852671415</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>131</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>1.261975557494615</v>
       </c>
     </row>
@@ -6841,72 +6805,66 @@
         <v>8.522254060012693e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-1.350327502914314</v>
+        <v>3.372427879876301e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.7350245439549599</v>
+        <v>1.868277134787023e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.372427879876301e-07</v>
+        <v>0.05979768872720931</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.868277134787023e-06</v>
+        <v>0.08675766793985684</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.05979768872720931</v>
+        <v>0.0110931270024954</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.08675766793985684</v>
+        <v>1.918566566372673</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0110931270024954</v>
+        <v>2.094892895963065</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.937842278242374</v>
+        <v>5.594015273370228</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.094892895963065</v>
+        <v>7.014262046496601e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.594015273370228</v>
+        <v>2074283252.675525</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>7.014262046496601e-17</v>
+        <v>5.809065225480144e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>2074283252.675525</v>
+        <v>301.7992169510759</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.809065225480144e-08</v>
+        <v>0.0001281603553146317</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>301.7992169510759</v>
+        <v>9.47969874771689</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001281603553146317</v>
+        <v>1.396457867300563</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.47969874771689</v>
+        <v>0.01151709038884978</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.396457867300563</v>
+        <v>3.979241503896723</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01151709038884978</v>
+        <v>0.9604890522513811</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.979241503896723</v>
+        <v>1.250963061863344</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9604890522513811</v>
+        <v>131</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.250963061863344</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>131</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>2.731904306237929</v>
       </c>
     </row>
@@ -6921,72 +6879,66 @@
         <v>7.910256733523378e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-1.363168291387625</v>
+        <v>3.085515925252592e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.7610483845931486</v>
+        <v>1.873110905011691e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.085515925252592e-07</v>
+        <v>0.05815390535613608</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.873110905011691e-06</v>
+        <v>0.08539979671870211</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.05815390535613608</v>
+        <v>0.010669131088119</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.08539979671870211</v>
+        <v>1.916897063907471</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.010669131088119</v>
+        <v>2.367593891080346</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.944906436812211</v>
+        <v>5.480919005757933</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.367593891080346</v>
+        <v>2.667877718887994e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.480919005757933</v>
+        <v>5098869937.312402</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.667877718887994e-17</v>
+        <v>2.341739184765563e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>5098869937.312402</v>
+        <v>693.6075121080282</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.341739184765563e-08</v>
+        <v>0.0001365394706593062</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>693.6075121080282</v>
+        <v>9.223862962358165</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001365394706593062</v>
+        <v>1.325834724662021</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.223862962358165</v>
+        <v>0.01161673009474957</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.325834724662021</v>
+        <v>3.908397836621387</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01161673009474957</v>
+        <v>0.9600675829484925</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.908397836621387</v>
+        <v>1.186543322344149</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9600675829484925</v>
+        <v>131</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.186543322344149</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>131</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>2.686935312920767</v>
       </c>
     </row>
@@ -7001,72 +6953,66 @@
         <v>7.3533516101268e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-1.387117326876648</v>
+        <v>2.867852822157064e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.8439142665987154</v>
+        <v>1.877518042675959e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.867852822157064e-07</v>
+        <v>0.05757194935785886</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.877518042675959e-06</v>
+        <v>0.08699794865429826</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.05757194935785886</v>
+        <v>0.01087913617855324</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.08699794865429826</v>
+        <v>1.920039477668157</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01087913617855324</v>
+        <v>2.950159984812054</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.95064346263053</v>
+        <v>5.295093835725593</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.950159984812054</v>
+        <v>2.773640190263616e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5.295093835725593</v>
+        <v>4899086223.019902</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.773640190263616e-17</v>
+        <v>2.443392937662429e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>4899086223.019902</v>
+        <v>665.7026529632873</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.443392937662429e-08</v>
+        <v>0.0001410238323494948</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>665.7026529632873</v>
+        <v>9.474759912462369</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001410238323494948</v>
+        <v>1.255102680626571</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.474759912462369</v>
+        <v>0.01265986108687478</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.255102680626571</v>
+        <v>3.776075680990989</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01265986108687478</v>
+        <v>0.960151904749212</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.776075680990989</v>
+        <v>1.019262312688668</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.960151904749212</v>
+        <v>118</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.019262312688668</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>118</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>2.431578097887278</v>
       </c>
     </row>
@@ -7081,72 +7027,66 @@
         <v>6.83009755198422e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-1.414099872716222</v>
+        <v>2.693304290381301e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.9489322972547924</v>
+        <v>1.881607537525049e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.693304290381301e-07</v>
+        <v>0.0579856015727797</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.881607537525049e-06</v>
+        <v>0.09035450787950684</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.0579856015727797</v>
+        <v>0.01152307367992137</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.09035450787950684</v>
+        <v>1.919822063476906</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01152307367992137</v>
+        <v>2.80354266043511</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.951199528033998</v>
+        <v>5.25058189923703</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.80354266043511</v>
+        <v>4.045081646064631e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.25058189923703</v>
+        <v>3369431967.507588</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.045081646064631e-17</v>
+        <v>3.557516265894083e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>3369431967.507588</v>
+        <v>459.2410229854562</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.557516265894083e-08</v>
+        <v>0.0001486408491630911</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>459.2410229854562</v>
+        <v>10.85970635867541</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001486408491630911</v>
+        <v>1.135344389577631</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.85970635867541</v>
+        <v>0.01752969429185033</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.135344389577631</v>
+        <v>3.643448408870369</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01752969429185033</v>
+        <v>0.9597715902399953</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.643448408870369</v>
+        <v>1.038890972189102</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9597715902399953</v>
+        <v>118</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.038890972189102</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>118</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>2.343458538079477</v>
       </c>
     </row>
@@ -7161,72 +7101,66 @@
         <v>6.329017261703312e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-1.437508215023003</v>
+        <v>2.539318563424526e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1.044042508240235</v>
+        <v>1.885459793618381e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.539318563424526e-07</v>
+        <v>0.05931552870208464</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.885459793618381e-06</v>
+        <v>0.09464469676626017</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.05931552870208464</v>
+        <v>0.01247240282861287</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.09464469676626017</v>
+        <v>1.917090834010521</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01247240282861287</v>
+        <v>2.368580309732327</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.952457323565417</v>
+        <v>4.771509311211877</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.368580309732327</v>
+        <v>6.545293106987527e-17</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.771509311211877</v>
+        <v>2101554305.303861</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>6.545293106987527e-17</v>
+        <v>5.713343912571842e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>2101554305.303861</v>
+        <v>289.0748662628374</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>5.713343912571842e-08</v>
+        <v>0.0001755246733964727</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>289.0748662628374</v>
+        <v>11.39077776526053</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001755246733964727</v>
+        <v>1.188098501593477</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>11.39077776526053</v>
+        <v>0.02277429444482486</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.188098501593477</v>
+        <v>3.502496619914886</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.02277429444482486</v>
+        <v>0.9590954870944491</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.502496619914886</v>
+        <v>1.040954708742764</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9590954870944491</v>
+        <v>95</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.040954708742764</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>2.08503184209503</v>
       </c>
     </row>
@@ -7241,72 +7175,66 @@
         <v>5.849553062811405e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-1.454080417924883</v>
+        <v>2.384688229425309e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1.108910515964201</v>
+        <v>1.889125172800842e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.384688229425309e-07</v>
+        <v>0.06119656069752756</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.889125172800842e-06</v>
+        <v>0.09908506767262951</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.06119656069752756</v>
+        <v>0.01355803449469036</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.09908506767262951</v>
+        <v>1.907990512591049</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01355803449469036</v>
+        <v>2.238771944652768</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.932679497068798</v>
+        <v>4.723534441624833</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.238771944652768</v>
+        <v>7.021454117415772e-17</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.723534441624833</v>
+        <v>1975030609.784672</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>7.021454117415772e-17</v>
+        <v>6.076946086007031e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1975030609.784672</v>
+        <v>273.8890842785825</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>6.076946086007031e-08</v>
+        <v>0.0001811241673363098</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>273.8890842785825</v>
+        <v>12.75140805699682</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001811241673363098</v>
+        <v>1.071503522668549</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>12.75140805699682</v>
+        <v>0.02945050115706341</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.071503522668549</v>
+        <v>3.458685048962187</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.02945050115706341</v>
+        <v>0.9604608866153929</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.458685048962187</v>
+        <v>1.123128668775587</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9604608866153929</v>
+        <v>92</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.123128668775587</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>2.283293435459153</v>
       </c>
     </row>
@@ -7321,72 +7249,66 @@
         <v>5.398202814829351e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-1.464862170684028</v>
+        <v>2.224708216832692e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1.144941465015266</v>
+        <v>1.892614096702098e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.224708216832692e-07</v>
+        <v>0.06292410084548496</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.892614096702098e-06</v>
+        <v>0.1031848570944531</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.06292410084548496</v>
+        <v>0.01460086529715148</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1031848570944531</v>
+        <v>1.902763630757524</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01460086529715148</v>
+        <v>2.219055154460028</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.926134573386886</v>
+        <v>4.854931122488789</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.219055154460028</v>
+        <v>7.232632058317895e-17</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.854931122488789</v>
+        <v>1904028595.468852</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>7.232632058317895e-17</v>
+        <v>6.304379861468313e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1904028595.468852</v>
+        <v>262.2064103832314</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>6.304379861468313e-08</v>
+        <v>0.0001625611105462878</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>262.2064103832314</v>
+        <v>11.2476290443605</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001625611105462878</v>
+        <v>1.17336780651053</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>11.2476290443605</v>
+        <v>0.02056546940074978</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.17336780651053</v>
+        <v>3.538966381437664</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.02056546940074978</v>
+        <v>0.9614607699211971</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.538966381437664</v>
+        <v>1.289848229361356</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9614607699211971</v>
+        <v>92</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.289848229361356</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>1.966693617392487</v>
       </c>
     </row>
@@ -7401,72 +7323,66 @@
         <v>4.979665179022506e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-1.472358157646503</v>
+        <v>2.064223896200786e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1.164073741759479</v>
+        <v>1.895910701626517e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.064223896200786e-07</v>
+        <v>0.06415163691850978</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.895910701626517e-06</v>
+        <v>0.1068762155179631</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.06415163691850978</v>
+        <v>0.01553157046195649</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1068762155179631</v>
+        <v>1.900609876197538</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01553157046195649</v>
+        <v>2.257827419426063</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.922486451175396</v>
+        <v>5.674370079187671</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.257827419426063</v>
+        <v>8.810706718700859e-17</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.674370079187671</v>
+        <v>1624617061.05033</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>8.810706718700859e-17</v>
+        <v>7.397249111457231e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>1624617061.05033</v>
+        <v>232.548083420669</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>7.397249111457231e-08</v>
+        <v>0.0001690529465030578</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>232.548083420669</v>
+        <v>8.464931085188896</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001690529465030578</v>
+        <v>1.683018627191569</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.464931085188896</v>
+        <v>0.01211349873357471</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.683018627191569</v>
+        <v>3.30480997650644</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01211349873357471</v>
+        <v>0.9613015108820124</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.30480997650644</v>
+        <v>1.269895928301592</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9613015108820124</v>
+        <v>92</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.269895928301592</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.9319639035158456</v>
       </c>
     </row>
@@ -7481,72 +7397,66 @@
         <v>4.595447490659785e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-1.480234704391285</v>
+        <v>1.909603151652062e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1.185695893201858</v>
+        <v>1.898991605351947e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.909603151652062e-07</v>
+        <v>0.06446781607201485</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.898991605351947e-06</v>
+        <v>0.1105710055640807</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.06446781607201485</v>
+        <v>0.01637570368004855</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1105710055640807</v>
+        <v>1.900298338293228</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01637570368004855</v>
+        <v>2.289818782894656</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.917593476655392</v>
+        <v>4.794957551937442</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.289818782894656</v>
+        <v>1.670668666134972e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.794957551937442</v>
+        <v>854284396.959424</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.670668666134972e-16</v>
+        <v>1.404851675543241e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>854284396.959424</v>
+        <v>121.9257051353061</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.404851675543241e-07</v>
+        <v>0.0001782708316136028</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>121.9257051353061</v>
+        <v>8.832766540889105</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001782708316136028</v>
+        <v>1.588542277645427</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.832766540889105</v>
+        <v>0.01390829180544253</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.588542277645427</v>
+        <v>3.035726448496717</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01390829180544253</v>
+        <v>0.9602828948615648</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.035726448496717</v>
+        <v>1.317344081694706</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9602828948615648</v>
+        <v>82</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.317344081694706</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.4799389614538799</v>
       </c>
     </row>
@@ -7561,72 +7471,66 @@
         <v>4.24138438162571e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-1.491567856280248</v>
+        <v>1.767870861499703e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1.224981798448265</v>
+        <v>1.901825174884928e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.767870861499703e-07</v>
+        <v>0.06373861726865011</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.901825174884928e-06</v>
+        <v>0.1154378741177069</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.06373861726865011</v>
+        <v>0.01738235238276426</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1154378741177069</v>
+        <v>1.901988771076698</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01738235238276426</v>
+        <v>2.112038891018094</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.909348029538856</v>
+        <v>4.277657357613803</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.112038891018094</v>
+        <v>2.099171262309655e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.277657357613803</v>
+        <v>666384577.9613371</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.099171262309655e-16</v>
+        <v>1.805949089062193e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>666384577.9613371</v>
+        <v>93.21756358389575</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.805949089062193e-07</v>
+        <v>0.0001780452089575502</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>93.21756358389575</v>
+        <v>10.59094147659592</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001780452089575502</v>
+        <v>1.197834933420626</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.59094147659592</v>
+        <v>0.01997098236242135</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.197834933420626</v>
+        <v>2.827404197889964</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01997098236242135</v>
+        <v>0.9609821350710966</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.827404197889964</v>
+        <v>1.333520465741327</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9609821350710966</v>
+        <v>65</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.333520465741327</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.3746670568645585</v>
       </c>
     </row>
@@ -7641,72 +7545,66 @@
         <v>3.911222158571301e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-1.506548565375939</v>
+        <v>1.641406882928204e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1.283759308467323</v>
+        <v>1.904398728546169e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.641406882928204e-07</v>
+        <v>0.06258280686614442</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.904398728546169e-06</v>
+        <v>0.1219185154060917</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.06258280686614442</v>
+        <v>0.01877498119302362</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1219185154060917</v>
+        <v>1.905737143462511</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01877498119302362</v>
+        <v>2.122004634882083</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.909110488866555</v>
+        <v>4.257365568959308</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.122004634882083</v>
+        <v>2.119229418444814e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.257365568959308</v>
+        <v>660758722.0687869</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.119229418444814e-16</v>
+        <v>1.827758979265903e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>660758722.0687869</v>
+        <v>92.52599907181725</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.827758979265903e-07</v>
+        <v>0.0001905797984999253</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>92.52599907181725</v>
+        <v>12.46172502978493</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001905797984999253</v>
+        <v>1.051574007138</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>12.46172502978493</v>
+        <v>0.02959601180715875</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.051574007138</v>
+        <v>2.527215483157448</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02959601180715875</v>
+        <v>0.9616752303429976</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.527215483157448</v>
+        <v>1.379547331396501</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9616752303429976</v>
+        <v>68</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.379547331396501</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.3708683285113703</v>
       </c>
     </row>
@@ -7721,72 +7619,66 @@
         <v>3.599720728806119e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-1.521274428634129</v>
+        <v>1.53180370867676e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1.345741834212431</v>
+        <v>1.906732147859879e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.53180370867676e-07</v>
+        <v>0.06186486316753069</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.906732147859879e-06</v>
+        <v>0.1298582893560039</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.06186486316753069</v>
+        <v>0.02068546796852008</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1298582893560039</v>
+        <v>1.897153615951054</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02068546796852008</v>
+        <v>2.144454879476612</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.90109554806313</v>
+        <v>4.198148013121454</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.144454879476612</v>
+        <v>2.179437245170657e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.198148013121454</v>
+        <v>610400151.165929</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.179437245170657e-16</v>
+        <v>1.963736425754741e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>610400151.165929</v>
+        <v>81.20329152143394</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.963736425754741e-07</v>
+        <v>0.0001909377456170375</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>81.20329152143394</v>
+        <v>11.68528564479118</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001909377456170375</v>
+        <v>1.128248492678253</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>11.68528564479118</v>
+        <v>0.02607176643388135</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.128248492678253</v>
+        <v>2.652799495952458</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02607176643388135</v>
+        <v>0.960844207051458</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.652799495952458</v>
+        <v>1.407856241113309</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.960844207051458</v>
+        <v>68</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.407856241113309</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.344399836071841</v>
       </c>
     </row>
@@ -8163,7 +8055,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.211272744348791</v>
+        <v>1.208982974278803</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.064988303246364</v>
@@ -8252,7 +8144,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.210960223154107</v>
+        <v>1.20955900957441</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.066155944969085</v>
@@ -8341,7 +8233,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.232649343421573</v>
+        <v>1.237844409233227</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.28307889256935</v>
@@ -8430,7 +8322,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.247930676129301</v>
+        <v>1.255154275888937</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.420045900814979</v>
@@ -8519,7 +8411,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.259425706208706</v>
+        <v>1.266788163300094</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.429600309830268</v>
@@ -8608,7 +8500,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.277189536258248</v>
+        <v>1.285512164962363</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.275524233360405</v>
@@ -8697,7 +8589,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.286951273371099</v>
+        <v>1.294688149599173</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.997840553831515</v>
@@ -8786,7 +8678,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.277210558514846</v>
+        <v>1.281716666886608</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.239097181613834</v>
@@ -8875,7 +8767,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.257237939466715</v>
+        <v>1.260710623668791</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.282594995558859</v>
@@ -8964,7 +8856,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.252390372545044</v>
+        <v>1.261725621141077</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.269365953696508</v>
@@ -9053,7 +8945,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.253372890042961</v>
+        <v>1.262826718009852</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.280844945646677</v>
@@ -9142,7 +9034,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.269560955596777</v>
+        <v>1.280837667139101</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.103783722820307</v>
@@ -9231,7 +9123,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.279154226524569</v>
+        <v>1.294944002711856</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.92376179088867</v>
@@ -9320,7 +9212,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.279777380416864</v>
+        <v>1.289855921835822</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.141108614242757</v>
@@ -9409,7 +9301,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.242547772203389</v>
+        <v>1.260391748370319</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.87632444488235</v>
@@ -9498,7 +9390,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.242332208686121</v>
+        <v>1.25748641655551</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.847318391245901</v>
@@ -9587,7 +9479,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.254525004931953</v>
+        <v>1.270629315679542</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.884241562722742</v>
@@ -9676,7 +9568,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.257502282496942</v>
+        <v>1.271443101050533</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.896707802130144</v>
@@ -9765,7 +9657,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.259096232748981</v>
+        <v>1.273361101821124</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.872562599716139</v>
@@ -9854,7 +9746,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.266171675237761</v>
+        <v>1.281915061071589</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.824201307861671</v>
@@ -9943,7 +9835,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.262391087956939</v>
+        <v>1.278143211477307</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.86371991119915</v>
@@ -10032,7 +9924,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.277149594759522</v>
+        <v>1.294651238212398</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.854949330721018</v>
@@ -10121,7 +10013,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.293501995798147</v>
+        <v>1.313653696429215</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.78713450004672</v>
@@ -10210,7 +10102,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.298054446412215</v>
+        <v>1.313646327246521</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.809369850841156</v>
@@ -10299,7 +10191,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.296800293282337</v>
+        <v>1.309207453480104</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.839636380426192</v>
@@ -10388,7 +10280,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.288473832838973</v>
+        <v>1.303688793441242</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.811549724143786</v>
@@ -10477,7 +10369,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.297211884502847</v>
+        <v>1.310197403764956</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.820287097542298</v>
@@ -10566,7 +10458,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.299840203641616</v>
+        <v>1.312462596702428</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.833122077255769</v>
@@ -10655,7 +10547,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.310810331951082</v>
+        <v>1.323862966617805</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.646993954564892</v>
@@ -10744,7 +10636,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.334144075164334</v>
+        <v>1.342161702142974</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.020447674484149</v>
@@ -10833,7 +10725,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.332598808115966</v>
+        <v>1.34905658017617</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.342036767347422</v>
@@ -10922,7 +10814,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.333544913188506</v>
+        <v>1.347465932439188</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.414678404137041</v>
@@ -11011,7 +10903,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.306765566223766</v>
+        <v>1.320882108323713</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.392030916794333</v>
@@ -11100,7 +10992,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.30349899267497</v>
+        <v>1.319160632315562</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.412858083724199</v>
@@ -11189,7 +11081,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.306111580853724</v>
+        <v>1.323280395666958</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.527947091418446</v>
@@ -11278,7 +11170,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.309963671229358</v>
+        <v>1.321884846555726</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.435303993461193</v>
@@ -11367,7 +11259,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.288939336762827</v>
+        <v>1.29853637483218</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.467480692525988</v>
@@ -11456,7 +11348,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.290619421585581</v>
+        <v>1.29969844901375</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.20954224767852</v>
@@ -11545,7 +11437,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.311675653342389</v>
+        <v>1.325995373101009</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.187062083013824</v>
@@ -11634,7 +11526,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.318627498941805</v>
+        <v>1.333913996587647</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.2630593835712</v>
@@ -11723,7 +11615,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.310815882351725</v>
+        <v>1.328788731493558</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.414069000105918</v>
@@ -11812,7 +11704,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.314453745995487</v>
+        <v>1.332983776086266</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.215129436328595</v>
@@ -11901,7 +11793,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.329941811885979</v>
+        <v>1.349819126358138</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.567181587299491</v>
@@ -11990,7 +11882,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.33264169228698</v>
+        <v>1.346700568330125</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.284232228952257</v>
@@ -12079,7 +11971,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.379659071381315</v>
+        <v>1.399714369645159</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.290055385214205</v>
@@ -12168,7 +12060,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.400630129430101</v>
+        <v>1.420715101628831</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.282381219782599</v>
@@ -12257,7 +12149,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.398053928857042</v>
+        <v>1.418922954609617</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.334310295944706</v>
@@ -12346,7 +12238,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.450943950003982</v>
+        <v>1.474190399579596</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.260836855415658</v>
@@ -12435,7 +12327,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.454227261948106</v>
+        <v>1.471229761828342</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.272854830087889</v>
@@ -12524,7 +12416,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.455989969948908</v>
+        <v>1.479250705884479</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.089590452406327</v>
@@ -12613,7 +12505,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.48975410115096</v>
+        <v>1.513139615232395</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.086925888152924</v>
@@ -12702,7 +12594,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.521441158585653</v>
+        <v>1.535517323248065</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.25630249047</v>
@@ -12791,7 +12683,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.482255242902663</v>
+        <v>1.484354062891682</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.210428035322921</v>
@@ -12880,7 +12772,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.429103681576903</v>
+        <v>1.437771528864895</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.345848023892537</v>
@@ -12969,7 +12861,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.451414250862618</v>
+        <v>1.454927525876171</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.268218980950281</v>
@@ -13058,7 +12950,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.411557286496955</v>
+        <v>1.419717555777215</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.197730885121446</v>
@@ -13147,7 +13039,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.383702504539264</v>
+        <v>1.390075569925743</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.240984583958244</v>
@@ -13236,7 +13128,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.378146703944493</v>
+        <v>1.384590018573464</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.221399370494389</v>
@@ -13325,7 +13217,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.375896275465474</v>
+        <v>1.381291870043769</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.243414991787056</v>
@@ -13414,7 +13306,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.369373129910597</v>
+        <v>1.373983878238141</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.265890740423417</v>
@@ -13503,7 +13395,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.347293576939806</v>
+        <v>1.353519787477909</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.297588311233056</v>
@@ -13789,7 +13681,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.486505508548844</v>
+        <v>1.473136630930239</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.762260173378266</v>
@@ -13878,7 +13770,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.492595927152281</v>
+        <v>1.477082211840997</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.73624137743396</v>
@@ -13967,7 +13859,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.516336641873386</v>
+        <v>1.491009557368929</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.347407313926811</v>
@@ -14056,7 +13948,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.514647353098373</v>
+        <v>1.490385453331601</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.249082468088019</v>
@@ -14145,7 +14037,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.53425269119596</v>
+        <v>1.508570266911647</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.671083663919524</v>
@@ -14234,7 +14126,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.526843302807177</v>
+        <v>1.505091187150992</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.638034539857942</v>
@@ -14323,7 +14215,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.458562757652287</v>
+        <v>1.447206252849399</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.850495887942509</v>
@@ -14412,7 +14304,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.454447286301088</v>
+        <v>1.447050954012843</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.886745807994068</v>
@@ -14501,7 +14393,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.46765289400025</v>
+        <v>1.474842208959386</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.879223825309927</v>
@@ -14590,7 +14482,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.469216724912274</v>
+        <v>1.47886362124186</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.878543087642708</v>
@@ -14679,7 +14571,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.475678797246013</v>
+        <v>1.483666371410339</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.877638814789846</v>
@@ -14768,7 +14660,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.506239160735054</v>
+        <v>1.503582997353392</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.797021646376355</v>
@@ -14857,7 +14749,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.511823772831452</v>
+        <v>1.515241812155638</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.859934575566332</v>
@@ -14946,7 +14838,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.517218889362704</v>
+        <v>1.52390605263273</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.876640855578805</v>
@@ -15035,7 +14927,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.521525444424968</v>
+        <v>1.534379910371587</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.047219991538558</v>
@@ -15124,7 +15016,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.483382220694836</v>
+        <v>1.506031464932366</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.09178028754679</v>
@@ -15213,7 +15105,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.472945239416529</v>
+        <v>1.493037159632751</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.127682135418944</v>
@@ -15302,7 +15194,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.477782355036426</v>
+        <v>1.493295405573256</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.124121669946426</v>
@@ -15391,7 +15283,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.483109912751075</v>
+        <v>1.499238861155311</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.159046658167609</v>
@@ -15480,7 +15372,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.489198913797018</v>
+        <v>1.50712631399617</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.147457105332883</v>
@@ -15569,7 +15461,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.492633356821629</v>
+        <v>1.506505089581648</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.144088610134989</v>
@@ -15658,7 +15550,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.535482355590124</v>
+        <v>1.543422760785701</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.087982351480176</v>
@@ -15747,7 +15639,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.544746013447932</v>
+        <v>1.55051034701902</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.165906203529452</v>
@@ -15836,7 +15728,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.529633655498446</v>
+        <v>1.53156699615045</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.146029732847704</v>
@@ -15925,7 +15817,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.527870121495729</v>
+        <v>1.529343812021945</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.166876394225145</v>
@@ -16014,7 +15906,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.520047473326935</v>
+        <v>1.522909306665087</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.152536253286769</v>
@@ -16103,7 +15995,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.516958789701861</v>
+        <v>1.521242077045612</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.152350734725367</v>
@@ -16192,7 +16084,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.522886235669452</v>
+        <v>1.527809631762455</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.181182050598696</v>
@@ -16281,7 +16173,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.526636934322898</v>
+        <v>1.529791920467809</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.975103865080526</v>
@@ -16370,7 +16262,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.542770639758339</v>
+        <v>1.535523621357453</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.942820064859485</v>
@@ -16459,7 +16351,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.586925409340252</v>
+        <v>1.570525340874772</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.190808393502809</v>
@@ -16548,7 +16440,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.575815983371732</v>
+        <v>1.56642193222762</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.547737119826849</v>
@@ -16637,7 +16529,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.585300464310787</v>
+        <v>1.579094491398143</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.956789850074052</v>
@@ -16726,7 +16618,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.567750968120001</v>
+        <v>1.567729486366039</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.038761526389774</v>
@@ -16815,7 +16707,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.55385893519254</v>
+        <v>1.557394651069767</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.811806017343853</v>
@@ -16904,7 +16796,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.543210428418798</v>
+        <v>1.543716201488602</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.84874970571675</v>
@@ -16993,7 +16885,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.51552927918921</v>
+        <v>1.518738665765066</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.764269717980586</v>
@@ -17082,7 +16974,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.505206170224585</v>
+        <v>1.508991282454142</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.761843203172294</v>
@@ -17171,7 +17063,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.52105822524104</v>
+        <v>1.525040578153502</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.675461885832768</v>
@@ -17260,7 +17152,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.525003997923662</v>
+        <v>1.532368864179104</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.90617871055212</v>
@@ -17349,7 +17241,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.537695610214329</v>
+        <v>1.539311576912926</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.743346272246137</v>
@@ -17438,7 +17330,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.535158483432748</v>
+        <v>1.540072092660705</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.84042613737957</v>
@@ -17527,7 +17419,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.537611011085532</v>
+        <v>1.541660251111611</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.932115338203894</v>
@@ -17616,7 +17508,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.537035158747601</v>
+        <v>1.540278662925299</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.831548863262539</v>
@@ -17705,7 +17597,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.535571818966791</v>
+        <v>1.539207522467649</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.847428358996926</v>
@@ -17794,7 +17686,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.556161226334748</v>
+        <v>1.554217127873475</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.486401781841159</v>
@@ -17883,7 +17775,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.553653590189033</v>
+        <v>1.546331011882994</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.770557084571776</v>
@@ -17972,7 +17864,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.560828887230142</v>
+        <v>1.556958555016515</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.785739103021175</v>
@@ -18061,7 +17953,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.549084826344939</v>
+        <v>1.53525369614017</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.716530120051177</v>
@@ -18150,7 +18042,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.552966176475179</v>
+        <v>1.54235444208761</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.27185542974611</v>
@@ -18239,7 +18131,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.564593009996656</v>
+        <v>1.553413814538604</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.489970469843447</v>
@@ -18328,7 +18220,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.583037503757934</v>
+        <v>1.580077654313714</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.540510559579299</v>
@@ -18417,7 +18309,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.501394290022109</v>
+        <v>1.47526617488372</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.704571561136885</v>
@@ -18506,7 +18398,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.398740734446815</v>
+        <v>1.395735709145228</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.811205186324468</v>
@@ -18595,7 +18487,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.395517265967603</v>
+        <v>1.408472319949645</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.902822977649778</v>
@@ -18684,7 +18576,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.340393680686178</v>
+        <v>1.363393852562068</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.981515326630946</v>
@@ -18773,7 +18665,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.317109162753205</v>
+        <v>1.33674157105899</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.024874263040667</v>
@@ -18862,7 +18754,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.309866977388343</v>
+        <v>1.328691299883896</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.024538562793458</v>
@@ -18951,7 +18843,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.309455114639836</v>
+        <v>1.327268379037634</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.039294775028193</v>
@@ -19040,7 +18932,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.304937901072932</v>
+        <v>1.325035870682831</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.062697596699394</v>
@@ -19129,7 +19021,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.30847030980775</v>
+        <v>1.330986492879203</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.080992247813734</v>
@@ -19415,7 +19307,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.288408257826219</v>
+        <v>1.297843121955893</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.505793739926179</v>
@@ -19504,7 +19396,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.299839213956525</v>
+        <v>1.309903542545862</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.48590083296561</v>
@@ -19593,7 +19485,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.54852713534493</v>
+        <v>1.555171274057747</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.17654885455039</v>
@@ -19682,7 +19574,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.587376394073172</v>
+        <v>1.591458407244843</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.545105757425512</v>
@@ -19771,7 +19663,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.579960760595174</v>
+        <v>1.583932491571944</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.801834205664647</v>
@@ -19860,7 +19752,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.565692005245055</v>
+        <v>1.571682587177409</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.779624312081907</v>
@@ -19949,7 +19841,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.494304513464762</v>
+        <v>1.507187891567496</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.536601611334061</v>
@@ -20038,7 +19930,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.465770162046493</v>
+        <v>1.480639920444066</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.547789078089931</v>
@@ -20127,7 +20019,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.461368455992764</v>
+        <v>1.478609831472783</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.544522497922384</v>
@@ -20216,7 +20108,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.463659322756489</v>
+        <v>1.479991284180086</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.546677446190686</v>
@@ -20305,7 +20197,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.461782159792755</v>
+        <v>1.474804303082814</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.548069590836985</v>
@@ -20394,7 +20286,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.475090831863575</v>
+        <v>1.491823626325781</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.534967331186211</v>
@@ -20483,7 +20375,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.481434671450308</v>
+        <v>1.500219442803769</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.534348478896176</v>
@@ -20572,7 +20464,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.470889004344907</v>
+        <v>1.488256737851672</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.556352576953088</v>
@@ -20661,7 +20553,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.472540985875059</v>
+        <v>1.493852591879863</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.618820415488989</v>
@@ -20750,7 +20642,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.484094194503335</v>
+        <v>1.502700813989895</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.636034772118778</v>
@@ -20839,7 +20731,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.487094518499972</v>
+        <v>1.503772584252083</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.623457301950495</v>
@@ -20928,7 +20820,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.48735290633257</v>
+        <v>1.503075442722251</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.634262831723459</v>
@@ -21017,7 +20909,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.488605979368151</v>
+        <v>1.503607102544094</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.634883744429614</v>
@@ -21106,7 +20998,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.496711927882708</v>
+        <v>1.508299823605033</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.613153044958787</v>
@@ -21195,7 +21087,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.49448342574592</v>
+        <v>1.509196290093737</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.636626775395124</v>
@@ -21284,7 +21176,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.548726846059982</v>
+        <v>1.556577210761867</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.97160436722617</v>
@@ -21373,7 +21265,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.585960681886941</v>
+        <v>1.591482855653097</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.051095741254483</v>
@@ -21462,7 +21354,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.584271654942953</v>
+        <v>1.587150158232766</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.095666820752088</v>
@@ -21551,7 +21443,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.563561518406359</v>
+        <v>1.572102933428107</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.109011737639807</v>
@@ -21640,7 +21532,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.558973002838906</v>
+        <v>1.566870672116049</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.093269966382508</v>
@@ -21729,7 +21621,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.557125784378748</v>
+        <v>1.56421040105394</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.118852396068992</v>
@@ -21818,7 +21710,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.55131652362601</v>
+        <v>1.557368053446613</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.117384214324757</v>
@@ -21907,7 +21799,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.598912303696558</v>
+        <v>1.597023182658955</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.150240392853981</v>
@@ -21996,7 +21888,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.616093951552497</v>
+        <v>1.609444727566553</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.517416234725589</v>
@@ -22085,7 +21977,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.607206712629434</v>
+        <v>1.607365620628795</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.481051892726413</v>
@@ -22174,7 +22066,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.611456420894225</v>
+        <v>1.612054737578074</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.730352757052311</v>
@@ -22263,7 +22155,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.599572265935638</v>
+        <v>1.597305239420148</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.906522300796396</v>
@@ -22352,7 +22244,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.588279181173784</v>
+        <v>1.58938777842981</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.843180001886169</v>
@@ -22441,7 +22333,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.584706233615188</v>
+        <v>1.588954026925592</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.899294351103979</v>
@@ -22530,7 +22422,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.595251837872916</v>
+        <v>1.594110582025312</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.806997992129791</v>
@@ -22619,7 +22511,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.579442064760422</v>
+        <v>1.584230157955087</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.825658725709752</v>
@@ -22708,7 +22600,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.589787000617136</v>
+        <v>1.591683668553211</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.536200031766803</v>
@@ -22797,7 +22689,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.586320331731943</v>
+        <v>1.588286563580767</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.508835858901632</v>
@@ -22886,7 +22778,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.604735616874217</v>
+        <v>1.601780485809335</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.854748628045238</v>
@@ -22975,7 +22867,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.595302845016602</v>
+        <v>1.594377410177555</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.813720336386832</v>
@@ -23064,7 +22956,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.602633429519339</v>
+        <v>1.602925392251369</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.711106350929688</v>
@@ -23153,7 +23045,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.609621394726731</v>
+        <v>1.606609209313219</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.94824582152782</v>
@@ -23242,7 +23134,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.605647640613589</v>
+        <v>1.602796227069342</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.620035771556172</v>
@@ -23331,7 +23223,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.61138908657782</v>
+        <v>1.608945200480081</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.801931287152776</v>
@@ -23420,7 +23312,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.613270707151016</v>
+        <v>1.614112720395409</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.882797917897979</v>
@@ -23509,7 +23401,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.61313536304151</v>
+        <v>1.609641777521373</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.907051005821472</v>
@@ -23598,7 +23490,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.645821271464114</v>
+        <v>1.640950859754104</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.429204589992378</v>
@@ -23687,7 +23579,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.641538980079544</v>
+        <v>1.634046236430343</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.095394316369621</v>
@@ -23776,7 +23668,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.655031845285076</v>
+        <v>1.64811492250677</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.86137786665454</v>
@@ -23865,7 +23757,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.671627704066212</v>
+        <v>1.660541735938097</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.755314557368873</v>
@@ -23954,7 +23846,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.675382556621342</v>
+        <v>1.660878994872035</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.454871625894381</v>
@@ -24043,7 +23935,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.618941999513818</v>
+        <v>1.572839049057002</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.888957649656902</v>
@@ -24132,7 +24024,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.480746954274001</v>
+        <v>1.478293287532785</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.97411486546363</v>
@@ -24221,7 +24113,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.468660612034015</v>
+        <v>1.465612914309874</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.06748787765565</v>
@@ -24310,7 +24202,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.375852590242791</v>
+        <v>1.393050892762238</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.943298688586549</v>
@@ -24399,7 +24291,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.345593747257289</v>
+        <v>1.357961864628557</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.031409904322682</v>
@@ -24488,7 +24380,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.34045363954973</v>
+        <v>1.354936487742284</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.006475111821428</v>
@@ -24577,7 +24469,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.33854438857988</v>
+        <v>1.352502646848918</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.99640411870096</v>
@@ -24666,7 +24558,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.33130981797277</v>
+        <v>1.343644491431093</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.005867356899733</v>
@@ -24755,7 +24647,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.323941882581531</v>
+        <v>1.336461428122999</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.037302725374802</v>
@@ -25041,7 +24933,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.453310413192642</v>
+        <v>1.463726412581155</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.019624612584729</v>
@@ -25130,7 +25022,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.453501502316858</v>
+        <v>1.460332767276027</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.022026848071505</v>
@@ -25219,7 +25111,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.505483598835294</v>
+        <v>1.513895684239624</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.183354864696581</v>
@@ -25308,7 +25200,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.526854220465793</v>
+        <v>1.532543888354776</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.927138792753077</v>
@@ -25397,7 +25289,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.535885196192888</v>
+        <v>1.538815233323985</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.92809362977596</v>
@@ -25486,7 +25378,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.561267210635249</v>
+        <v>1.567172378594961</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.834558623998294</v>
@@ -25575,7 +25467,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.580629904557855</v>
+        <v>1.589744165709543</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.552844388258454</v>
@@ -25664,7 +25556,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.566907570158995</v>
+        <v>1.577747299720303</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.826733197926488</v>
@@ -25753,7 +25645,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.556033675704707</v>
+        <v>1.564577086845791</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.793800195836734</v>
@@ -25842,7 +25734,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.551778593556161</v>
+        <v>1.56268454141762</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.763861935670894</v>
@@ -25931,7 +25823,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.543029446482862</v>
+        <v>1.555873992972489</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.718295421436666</v>
@@ -26020,7 +25912,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.547245662226312</v>
+        <v>1.558232342265679</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.733685837940512</v>
@@ -26109,7 +26001,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.549564415660085</v>
+        <v>1.562442289447628</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.416139579534977</v>
@@ -26198,7 +26090,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.542380574895804</v>
+        <v>1.551992965388045</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.806589366990464</v>
@@ -26287,7 +26179,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.536576332635136</v>
+        <v>1.560222909353105</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.210073636149535</v>
@@ -26376,7 +26268,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.539725182149154</v>
+        <v>1.558831894115337</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.205450289936221</v>
@@ -26465,7 +26357,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.547839543646681</v>
+        <v>1.567662037224368</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.255006877303177</v>
@@ -26554,7 +26446,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.545742427989644</v>
+        <v>1.563733823980082</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.263308060604206</v>
@@ -26643,7 +26535,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.547439223246462</v>
+        <v>1.565401549740777</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.235836674739614</v>
@@ -26732,7 +26624,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.556562152114799</v>
+        <v>1.576601453604475</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.176111912969941</v>
@@ -26821,7 +26713,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.551396220519312</v>
+        <v>1.569751957233705</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.194661166820904</v>
@@ -26910,7 +26802,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.555971796775341</v>
+        <v>1.571764222421346</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.226199896520136</v>
@@ -26999,7 +26891,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.576450454757999</v>
+        <v>1.58964481904447</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.146064547591553</v>
@@ -27088,7 +26980,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.570278355272653</v>
+        <v>1.582384793226034</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.156295769476015</v>
@@ -27177,7 +27069,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.571716930224497</v>
+        <v>1.580365186797289</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.21203316974105</v>
@@ -27266,7 +27158,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.567859342054519</v>
+        <v>1.576169618009348</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.183994221819008</v>
@@ -27355,7 +27247,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.574431395198473</v>
+        <v>1.584986420800466</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.179854246582499</v>
@@ -27444,7 +27336,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.578365981329769</v>
+        <v>1.588790694508947</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.216084561266422</v>
@@ -27533,7 +27425,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.579978856548224</v>
+        <v>1.591115923558415</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.073532233010559</v>
@@ -27622,7 +27514,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.568117680099719</v>
+        <v>1.56388940595816</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.833678683846775</v>
@@ -27711,7 +27603,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.565062741546153</v>
+        <v>1.568874848241287</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.811665289131126</v>
@@ -27800,7 +27692,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.564290631841745</v>
+        <v>1.564160184747168</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.943954482666541</v>
@@ -27889,7 +27781,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.537055651790922</v>
+        <v>1.542268904432144</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.997227872582289</v>
@@ -27978,7 +27870,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.520627729217704</v>
+        <v>1.530213228895408</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.841320210716663</v>
@@ -28067,7 +27959,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.515127271819027</v>
+        <v>1.522091389172967</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.91911379543569</v>
@@ -28156,7 +28048,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.519241215227641</v>
+        <v>1.519577475497605</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.971825269102173</v>
@@ -28245,7 +28137,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.502501071357804</v>
+        <v>1.496538059984142</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.826725927389623</v>
@@ -28334,7 +28226,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.491547377774371</v>
+        <v>1.486849854581307</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.808647848599582</v>
@@ -28423,7 +28315,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.50343678683643</v>
+        <v>1.501936689702454</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.646486479109288</v>
@@ -28512,7 +28404,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.506680785061599</v>
+        <v>1.507207907040901</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.908178997430766</v>
@@ -28601,7 +28493,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.515157713493404</v>
+        <v>1.509766811937842</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.799419629697155</v>
@@ -28690,7 +28582,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.507085136184162</v>
+        <v>1.498544195786977</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.70772985302747</v>
@@ -28779,7 +28671,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.519767011642119</v>
+        <v>1.508810827770387</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.796083939066116</v>
@@ -28868,7 +28760,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.53160546380476</v>
+        <v>1.516185888777978</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.682629650889038</v>
@@ -28957,7 +28849,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.575016122454147</v>
+        <v>1.558395638096425</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.89080025300795</v>
@@ -29046,7 +28938,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.59329363998035</v>
+        <v>1.572104483131098</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.626010385516668</v>
@@ -29135,7 +29027,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.599190830481847</v>
+        <v>1.575736214219398</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.909185750925904</v>
@@ -29224,7 +29116,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.644070018952075</v>
+        <v>1.611932520205812</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.737489939002784</v>
@@ -29313,7 +29205,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.643737369821162</v>
+        <v>1.610889092093612</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.852551246799428</v>
@@ -29402,7 +29294,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.645877811136746</v>
+        <v>1.619522599105628</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.567216796902725</v>
@@ -29491,7 +29383,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.662594299879517</v>
+        <v>1.638690095144021</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.520646594113806</v>
@@ -29580,7 +29472,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.683197502582915</v>
+        <v>1.656555453949762</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.659533878220344</v>
@@ -29669,7 +29561,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.664234961896734</v>
+        <v>1.638655854397848</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.135338410900345</v>
@@ -29758,7 +29650,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.63583485732197</v>
+        <v>1.62073745271558</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.182695543434651</v>
@@ -29847,7 +29739,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.660509068973259</v>
+        <v>1.647447286135499</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.276903023031291</v>
@@ -29936,7 +29828,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.609055589901446</v>
+        <v>1.615931917232307</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.371940704190711</v>
@@ -30025,7 +29917,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.595626136488606</v>
+        <v>1.61440198693157</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.430363456288798</v>
@@ -30114,7 +30006,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.589230857504953</v>
+        <v>1.609618907715843</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.459199584560622</v>
@@ -30203,7 +30095,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.587272737894399</v>
+        <v>1.609028486414352</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.420399760642521</v>
@@ -30292,7 +30184,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.582469302797927</v>
+        <v>1.603921256969052</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.506704744986439</v>
@@ -30381,7 +30273,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.566344615262007</v>
+        <v>1.594069798756052</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.439552539488158</v>
@@ -30667,7 +30559,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.423416889999807</v>
+        <v>1.425710585652158</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.671521026121585</v>
@@ -30756,7 +30648,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.430257652918969</v>
+        <v>1.435869462256181</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.677308551315905</v>
@@ -30845,7 +30737,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.523755933049601</v>
+        <v>1.518397783498737</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.325638516830841</v>
@@ -30934,7 +30826,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.536953283039738</v>
+        <v>1.530125059280147</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.960724007760857</v>
@@ -31023,7 +30915,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.54122340616506</v>
+        <v>1.52947042106533</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.777130204448514</v>
@@ -31112,7 +31004,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.542157360973371</v>
+        <v>1.534028579154083</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.820328022482617</v>
@@ -31201,7 +31093,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.512163032252776</v>
+        <v>1.511138466338147</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.008645997838359</v>
@@ -31290,7 +31182,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.499700730359459</v>
+        <v>1.505300507870861</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.95840960330785</v>
@@ -31379,7 +31271,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.502977769518057</v>
+        <v>1.511761004050277</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.950466158191545</v>
@@ -31468,7 +31360,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.510686757701246</v>
+        <v>1.522715171528476</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.93987087792615</v>
@@ -31557,7 +31449,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.501238720950427</v>
+        <v>1.514335587930104</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.982953253158696</v>
@@ -31646,7 +31538,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.508186262994012</v>
+        <v>1.510695898399089</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.916987669334033</v>
@@ -31735,7 +31627,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.518199493631311</v>
+        <v>1.520424332068641</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.879058100424005</v>
@@ -31824,7 +31716,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.498872386537343</v>
+        <v>1.498089123392143</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.983338740786921</v>
@@ -31913,7 +31805,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.493912469171798</v>
+        <v>1.508131673962816</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.069622352613558</v>
@@ -32002,7 +31894,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.493734208484622</v>
+        <v>1.517817186667473</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.138068663434186</v>
@@ -32091,7 +31983,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.510173440126137</v>
+        <v>1.53312492403735</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.104347300623307</v>
@@ -32180,7 +32072,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.51539713879964</v>
+        <v>1.538176844964616</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.168488737533108</v>
@@ -32269,7 +32161,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.523631759324112</v>
+        <v>1.545119229282499</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.130829289201464</v>
@@ -32358,7 +32250,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.535912566795318</v>
+        <v>1.559520359050525</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.200931018370963</v>
@@ -32447,7 +32339,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.540459686780094</v>
+        <v>1.560570684332451</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.156248335817784</v>
@@ -32536,7 +32428,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.574890397110736</v>
+        <v>1.592762985840899</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.249920331458912</v>
@@ -32625,7 +32517,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.593274754210668</v>
+        <v>1.606987895215784</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.296125981767439</v>
@@ -32714,7 +32606,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.572009548721947</v>
+        <v>1.582123619600887</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.302152059457903</v>
@@ -32803,7 +32695,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.565526811219869</v>
+        <v>1.577818494739961</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.364569895344617</v>
@@ -32892,7 +32784,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.563951811224271</v>
+        <v>1.578627753599462</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.380644093465887</v>
@@ -32981,7 +32873,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.565153363676834</v>
+        <v>1.579515853301195</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.390317589467561</v>
@@ -33070,7 +32962,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.557462291346374</v>
+        <v>1.574189116310493</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.387205942044803</v>
@@ -33159,7 +33051,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.57412402920658</v>
+        <v>1.591919414785242</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.196799588308449</v>
@@ -33248,7 +33140,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.61040669879555</v>
+        <v>1.612828566931891</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.684129317228043</v>
@@ -33337,7 +33229,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.605174887960386</v>
+        <v>1.603994155245575</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.916240347748834</v>
@@ -33426,7 +33318,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.582607746292103</v>
+        <v>1.58212593689752</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.080764909206042</v>
@@ -33515,7 +33407,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.569333551731811</v>
+        <v>1.569578608753231</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.893396354284485</v>
@@ -33604,7 +33496,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.556870041024071</v>
+        <v>1.559927596286903</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.951446631507606</v>
@@ -33693,7 +33585,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.543127389345729</v>
+        <v>1.547773394827133</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.717815516103107</v>
@@ -33782,7 +33674,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.531843211850102</v>
+        <v>1.531119518359842</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.83598043350082</v>
@@ -33871,7 +33763,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.509743925706715</v>
+        <v>1.505452976836878</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.941885509942913</v>
@@ -33960,7 +33852,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.497350128235182</v>
+        <v>1.494011568741412</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.478820895284606</v>
@@ -34049,7 +33941,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.519375013518023</v>
+        <v>1.51851119303874</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.523303760162404</v>
@@ -34138,7 +34030,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.527075105889086</v>
+        <v>1.520449039917339</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.783100508798269</v>
@@ -34227,7 +34119,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.535104791896299</v>
+        <v>1.525483893841745</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.924038786494185</v>
@@ -34316,7 +34208,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.537081955238517</v>
+        <v>1.534338394547912</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.624519177047982</v>
@@ -34405,7 +34297,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.548201767754096</v>
+        <v>1.54374702633799</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.698003773669193</v>
@@ -34494,7 +34386,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.553338809716399</v>
+        <v>1.546445025224588</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.588612588456303</v>
@@ -34583,7 +34475,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.557568527612135</v>
+        <v>1.553850781438425</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.744550653721845</v>
@@ -34672,7 +34564,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.569345221593628</v>
+        <v>1.563143259253581</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.689541516476857</v>
@@ -34761,7 +34653,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.578139510282693</v>
+        <v>1.568557543512032</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.792549790549769</v>
@@ -34850,7 +34742,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.597900393979999</v>
+        <v>1.585688727569907</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.908265206712511</v>
@@ -34939,7 +34831,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.596898530028506</v>
+        <v>1.578751960024849</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.65789410731338</v>
@@ -35028,7 +34920,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.608704541482437</v>
+        <v>1.594206275531486</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.404051557801469</v>
@@ -35117,7 +35009,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.622266770518149</v>
+        <v>1.605782281210455</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.635140323647779</v>
@@ -35206,7 +35098,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.644716436914695</v>
+        <v>1.628946362445588</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.932552400306227</v>
@@ -35295,7 +35187,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.560587649252277</v>
+        <v>1.544446666343618</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.79589093571626</v>
@@ -35384,7 +35276,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.434096208231439</v>
+        <v>1.440685322035077</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.906256453082224</v>
@@ -35473,7 +35365,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.43444765834718</v>
+        <v>1.448691586550806</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.986167940633132</v>
@@ -35562,7 +35454,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.3537282440248</v>
+        <v>1.378005422456548</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.013627438034464</v>
@@ -35651,7 +35543,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.325280916308407</v>
+        <v>1.350583867102061</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.050700002659239</v>
@@ -35740,7 +35632,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.317772483354165</v>
+        <v>1.345119144205779</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.064706047517402</v>
@@ -35829,7 +35721,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.314333137695597</v>
+        <v>1.340132893613726</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.058825682286017</v>
@@ -35918,7 +35810,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.305411921318251</v>
+        <v>1.33230439518141</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.074679580190737</v>
@@ -36007,7 +35899,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.308740444640137</v>
+        <v>1.338382246256029</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.073384097889851</v>
@@ -36293,7 +36185,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.289739604454257</v>
+        <v>1.297122459318374</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.193999134279044</v>
@@ -36382,7 +36274,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.303212430417885</v>
+        <v>1.311443475864427</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.231002634881905</v>
@@ -36471,7 +36363,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.338053456999228</v>
+        <v>1.354781962460978</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.530764241728573</v>
@@ -36560,7 +36452,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.356086528891586</v>
+        <v>1.375312019568409</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.604702728095819</v>
@@ -36649,7 +36541,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.368773039812849</v>
+        <v>1.387038069241435</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.580773694100738</v>
@@ -36738,7 +36630,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.400035785937799</v>
+        <v>1.420790463671928</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.502818017427063</v>
@@ -36827,7 +36719,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.421107541083431</v>
+        <v>1.441455918546122</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.35090877715399</v>
@@ -36916,7 +36808,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.408705704150594</v>
+        <v>1.425853925196681</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.636991850729023</v>
@@ -37005,7 +36897,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.369944253937601</v>
+        <v>1.384781736253795</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.606652775236635</v>
@@ -37094,7 +36986,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.365143682579866</v>
+        <v>1.387514632402403</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.604322788223669</v>
@@ -37183,7 +37075,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.356951895785596</v>
+        <v>1.376836052331788</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.596096614860389</v>
@@ -37272,7 +37164,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.366016978728407</v>
+        <v>1.38216040818531</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.726639412603476</v>
@@ -37361,7 +37253,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.3764500525247</v>
+        <v>1.395559915741341</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.227166030958336</v>
@@ -37450,7 +37342,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.371875389916049</v>
+        <v>1.38392754132582</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.125396659243721</v>
@@ -37539,7 +37431,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.291036339447834</v>
+        <v>1.308917733522054</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.852904505672933</v>
@@ -37628,7 +37520,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.286626967530125</v>
+        <v>1.302905286070349</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.807968666753795</v>
@@ -37717,7 +37609,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.297402032558266</v>
+        <v>1.315002046661893</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.841767276791133</v>
@@ -37806,7 +37698,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.292900196617773</v>
+        <v>1.305797009483628</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.847565707572282</v>
@@ -37895,7 +37787,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.295869102513967</v>
+        <v>1.30920180763789</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.836559180313838</v>
@@ -37984,7 +37876,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.301137711885546</v>
+        <v>1.315171990391226</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.812071615524008</v>
@@ -38073,7 +37965,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.293186017786894</v>
+        <v>1.306708888795093</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.815835165134277</v>
@@ -38162,7 +38054,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.301530289356678</v>
+        <v>1.315495487652627</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.814759724218247</v>
@@ -38251,7 +38143,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.322498293272584</v>
+        <v>1.337233337596996</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.776527596571357</v>
@@ -38340,7 +38232,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.328981264859655</v>
+        <v>1.340583147262692</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.766420473240356</v>
@@ -38429,7 +38321,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.327113921529012</v>
+        <v>1.333760550560668</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.813641240158265</v>
@@ -38518,7 +38410,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.318334248495688</v>
+        <v>1.327719945319547</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.791247517566612</v>
@@ -38607,7 +38499,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.322127066123889</v>
+        <v>1.331867464813746</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.787562273666598</v>
@@ -38696,7 +38588,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.327957152969834</v>
+        <v>1.337401072997282</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.802866734520355</v>
@@ -38785,7 +38677,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.338298830682553</v>
+        <v>1.346025534858108</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.614461125226122</v>
@@ -38874,7 +38766,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.400539692319466</v>
+        <v>1.400671638430377</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.067767120337033</v>
@@ -38963,7 +38855,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.405563798852197</v>
+        <v>1.414872347488032</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.407369955546006</v>
@@ -39052,7 +38944,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.399894138516088</v>
+        <v>1.40856182219001</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.433067343299568</v>
@@ -39141,7 +39033,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.371692745635523</v>
+        <v>1.383404193458718</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.473865321065659</v>
@@ -39230,7 +39122,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.359230443274664</v>
+        <v>1.372778727917911</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.432342432583968</v>
@@ -39319,7 +39211,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.360456661616564</v>
+        <v>1.374390715506405</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.51394983774743</v>
@@ -39408,7 +39300,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.364330088605292</v>
+        <v>1.377129154256662</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.377556502739903</v>
@@ -39497,7 +39389,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.345286184506489</v>
+        <v>1.352944991776069</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.415884575601174</v>
@@ -39586,7 +39478,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.333259819493335</v>
+        <v>1.342110432620083</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.312324207450033</v>
@@ -39675,7 +39567,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.351813908882076</v>
+        <v>1.362282738264218</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.201794022566025</v>
@@ -39764,7 +39656,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.360737455932186</v>
+        <v>1.373211250427883</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.249053861761143</v>
@@ -39853,7 +39745,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.357161681633997</v>
+        <v>1.373784554230742</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.369238239665338</v>
@@ -39942,7 +39834,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.357663823293395</v>
+        <v>1.374487779071292</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.270247856045623</v>
@@ -40031,7 +39923,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.373429059962436</v>
+        <v>1.3887618469081</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.429741491809907</v>
@@ -40120,7 +40012,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.376822247649796</v>
+        <v>1.3908626096259</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.276471724788085</v>
@@ -40209,7 +40101,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.432051476724395</v>
+        <v>1.450879524185678</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.265159046099148</v>
@@ -40298,7 +40190,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.458183237769686</v>
+        <v>1.476183685550616</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.248991768001844</v>
@@ -40387,7 +40279,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.461263540540316</v>
+        <v>1.478066217545773</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.336390804647126</v>
@@ -40476,7 +40368,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.524547854835198</v>
+        <v>1.5371294017518</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.202120823686351</v>
@@ -40565,7 +40457,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.522541067082404</v>
+        <v>1.527851027811517</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.354348689983741</v>
@@ -40654,7 +40546,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.512405946603109</v>
+        <v>1.523227789514104</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.264336628015308</v>
@@ -40743,7 +40635,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.536760305539462</v>
+        <v>1.546322502697909</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.213865358379259</v>
@@ -40832,7 +40724,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.582678448146143</v>
+        <v>1.579906913133128</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.191005136486961</v>
@@ -40921,7 +40813,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.539424059084801</v>
+        <v>1.53620422380242</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.374319847011667</v>
@@ -41010,7 +40902,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.487241048030338</v>
+        <v>1.495905531372506</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.38829159390993</v>
@@ -41099,7 +40991,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.500948521421529</v>
+        <v>1.502927444572057</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.324183483208463</v>
@@ -41188,7 +41080,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.456430198952102</v>
+        <v>1.459070641324968</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.321991282500165</v>
@@ -41277,7 +41169,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.435662365424203</v>
+        <v>1.440935508609259</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.284540528805869</v>
@@ -41366,7 +41258,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.427308436958459</v>
+        <v>1.434920431513695</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.305639279012359</v>
@@ -41455,7 +41347,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.4311579944136</v>
+        <v>1.436377173279957</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.334473529988619</v>
@@ -41544,7 +41436,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.424806682616761</v>
+        <v>1.432200424310572</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.320422731309655</v>
@@ -41633,7 +41525,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.398529630136941</v>
+        <v>1.405562360052131</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.354491548878468</v>
